--- a/data/pca/factorExposure/factorExposure_2012-01-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01641716149236997</v>
+        <v>0.01517735376139554</v>
       </c>
       <c r="C2">
-        <v>-0.03096226096392669</v>
+        <v>0.02531969470033911</v>
       </c>
       <c r="D2">
-        <v>-0.01886979271841605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01818699585363111</v>
+      </c>
+      <c r="E2">
+        <v>0.01345115001389026</v>
+      </c>
+      <c r="F2">
+        <v>-0.01329255127331004</v>
+      </c>
+      <c r="G2">
+        <v>0.003664423375778238</v>
+      </c>
+      <c r="H2">
+        <v>-0.04792792742372342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07397710013083302</v>
+        <v>0.08779527984208038</v>
       </c>
       <c r="C4">
-        <v>-0.05329715011747968</v>
+        <v>0.0398101375404807</v>
       </c>
       <c r="D4">
-        <v>-0.08472551938153522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06812382793737126</v>
+      </c>
+      <c r="E4">
+        <v>0.00625588088015976</v>
+      </c>
+      <c r="F4">
+        <v>-0.03734618264513434</v>
+      </c>
+      <c r="G4">
+        <v>0.003082463413464567</v>
+      </c>
+      <c r="H4">
+        <v>0.03745332201373437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1097554936042297</v>
+        <v>0.1212686116710618</v>
       </c>
       <c r="C6">
-        <v>-0.0502590703337236</v>
+        <v>0.03606197049398085</v>
       </c>
       <c r="D6">
-        <v>-0.007217501590723768</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01197928699507607</v>
+      </c>
+      <c r="E6">
+        <v>-0.02317896238925021</v>
+      </c>
+      <c r="F6">
+        <v>-0.05299215108114698</v>
+      </c>
+      <c r="G6">
+        <v>0.03335756555341778</v>
+      </c>
+      <c r="H6">
+        <v>-0.1157619317590004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05396220848585109</v>
+        <v>0.06300130571526477</v>
       </c>
       <c r="C7">
-        <v>-0.02507848534820758</v>
+        <v>0.01397768313723264</v>
       </c>
       <c r="D7">
-        <v>-0.03642780309264029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04786589101138777</v>
+      </c>
+      <c r="E7">
+        <v>0.03602910070919896</v>
+      </c>
+      <c r="F7">
+        <v>-0.03624845915722524</v>
+      </c>
+      <c r="G7">
+        <v>-0.03282602594715343</v>
+      </c>
+      <c r="H7">
+        <v>0.01726994656054768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04063144624170312</v>
+        <v>0.04143210232518769</v>
       </c>
       <c r="C8">
-        <v>-0.01468579279667954</v>
+        <v>0.009066780164799526</v>
       </c>
       <c r="D8">
-        <v>-0.06127297654047766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02699649575690102</v>
+      </c>
+      <c r="E8">
+        <v>0.01818796865493654</v>
+      </c>
+      <c r="F8">
+        <v>-0.05768238943289904</v>
+      </c>
+      <c r="G8">
+        <v>0.05860653005539553</v>
+      </c>
+      <c r="H8">
+        <v>-0.01659158172947477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06794924137627605</v>
+        <v>0.0790149884459873</v>
       </c>
       <c r="C9">
-        <v>-0.0392915504542659</v>
+        <v>0.02671530530933381</v>
       </c>
       <c r="D9">
-        <v>-0.07673031370697588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06410824760526346</v>
+      </c>
+      <c r="E9">
+        <v>0.02630227450350716</v>
+      </c>
+      <c r="F9">
+        <v>-0.03556129957924622</v>
+      </c>
+      <c r="G9">
+        <v>0.01293629708531203</v>
+      </c>
+      <c r="H9">
+        <v>0.04707424649039559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03213292737197283</v>
+        <v>0.03910494947413052</v>
       </c>
       <c r="C10">
-        <v>-0.02577279284857479</v>
+        <v>0.04725267291386306</v>
       </c>
       <c r="D10">
-        <v>0.1676281498069784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.172864833993133</v>
+      </c>
+      <c r="E10">
+        <v>0.0348770414654595</v>
+      </c>
+      <c r="F10">
+        <v>-0.05202668282422903</v>
+      </c>
+      <c r="G10">
+        <v>-0.01575437304581313</v>
+      </c>
+      <c r="H10">
+        <v>-0.03630734020961245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07271325447836603</v>
+        <v>0.07681235615904619</v>
       </c>
       <c r="C11">
-        <v>-0.04207344237820929</v>
+        <v>0.02312709024380756</v>
       </c>
       <c r="D11">
-        <v>-0.05720860172672473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06271587092684229</v>
+      </c>
+      <c r="E11">
+        <v>-0.006477079169553034</v>
+      </c>
+      <c r="F11">
+        <v>-0.02954867588795992</v>
+      </c>
+      <c r="G11">
+        <v>0.01783981204939035</v>
+      </c>
+      <c r="H11">
+        <v>0.07438676786438574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06084869161106676</v>
+        <v>0.06951619675597474</v>
       </c>
       <c r="C12">
-        <v>-0.05069690970508521</v>
+        <v>0.03528301243328491</v>
       </c>
       <c r="D12">
-        <v>-0.04515644508836632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04685424716300696</v>
+      </c>
+      <c r="E12">
+        <v>0.01060093641852721</v>
+      </c>
+      <c r="F12">
+        <v>-0.02274610956818453</v>
+      </c>
+      <c r="G12">
+        <v>0.01348211945079361</v>
+      </c>
+      <c r="H12">
+        <v>0.03171988542904373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06600697178529741</v>
+        <v>0.06687901876266841</v>
       </c>
       <c r="C13">
-        <v>-0.03469482244000282</v>
+        <v>0.01931933927122054</v>
       </c>
       <c r="D13">
-        <v>-0.04814787757547608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03887953977364947</v>
+      </c>
+      <c r="E13">
+        <v>0.01178962519548735</v>
+      </c>
+      <c r="F13">
+        <v>-0.009766365093801153</v>
+      </c>
+      <c r="G13">
+        <v>-0.001879527405199754</v>
+      </c>
+      <c r="H13">
+        <v>0.0564817619755555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03320044854639954</v>
+        <v>0.03946736059409307</v>
       </c>
       <c r="C14">
-        <v>-0.03064261966010236</v>
+        <v>0.02715179292577136</v>
       </c>
       <c r="D14">
-        <v>-0.003948128244887433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01297236138216875</v>
+      </c>
+      <c r="E14">
+        <v>0.03233077422909123</v>
+      </c>
+      <c r="F14">
+        <v>-0.01463541197059822</v>
+      </c>
+      <c r="G14">
+        <v>0.01744403759139853</v>
+      </c>
+      <c r="H14">
+        <v>0.05720809935174728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04002430764478822</v>
+        <v>0.0393959533275319</v>
       </c>
       <c r="C15">
-        <v>-0.008221722887944316</v>
+        <v>0.002241366540774624</v>
       </c>
       <c r="D15">
-        <v>-0.02065603372625463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008359829581582053</v>
+      </c>
+      <c r="E15">
+        <v>0.0361524640558882</v>
+      </c>
+      <c r="F15">
+        <v>-3.073814472007666e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.02932099271142029</v>
+      </c>
+      <c r="H15">
+        <v>0.0311298921174085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0612008724375202</v>
+        <v>0.07139245479563183</v>
       </c>
       <c r="C16">
-        <v>-0.03936389718969119</v>
+        <v>0.0253997157960341</v>
       </c>
       <c r="D16">
-        <v>-0.04957514238382042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06022292670614502</v>
+      </c>
+      <c r="E16">
+        <v>0.002881935807780821</v>
+      </c>
+      <c r="F16">
+        <v>-0.02907601536966684</v>
+      </c>
+      <c r="G16">
+        <v>0.01057985890412275</v>
+      </c>
+      <c r="H16">
+        <v>0.0496777664381311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06285374586203268</v>
+        <v>0.06313383121952718</v>
       </c>
       <c r="C20">
-        <v>-0.02375599313705693</v>
+        <v>0.009015293570111974</v>
       </c>
       <c r="D20">
-        <v>-0.04942098503574874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03890201627311662</v>
+      </c>
+      <c r="E20">
+        <v>0.01538879035492639</v>
+      </c>
+      <c r="F20">
+        <v>-0.03017693491635034</v>
+      </c>
+      <c r="G20">
+        <v>0.018731204846791</v>
+      </c>
+      <c r="H20">
+        <v>0.0375377654602421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02661117724887103</v>
+        <v>0.02607983852998346</v>
       </c>
       <c r="C21">
-        <v>0.002218159882879754</v>
+        <v>-0.009665536106621348</v>
       </c>
       <c r="D21">
-        <v>-0.01982739291507389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02295308269367454</v>
+      </c>
+      <c r="E21">
+        <v>0.04362457137331523</v>
+      </c>
+      <c r="F21">
+        <v>0.01266837853079646</v>
+      </c>
+      <c r="G21">
+        <v>0.006038092802983436</v>
+      </c>
+      <c r="H21">
+        <v>-0.04618867432199505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0797508501093584</v>
+        <v>0.07039228560641247</v>
       </c>
       <c r="C22">
-        <v>-0.05959230516719637</v>
+        <v>0.03497582002011807</v>
       </c>
       <c r="D22">
-        <v>-0.1321585585593906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09168673111101078</v>
+      </c>
+      <c r="E22">
+        <v>0.6062718151238464</v>
+      </c>
+      <c r="F22">
+        <v>0.1165996924206938</v>
+      </c>
+      <c r="G22">
+        <v>-0.1032436771889342</v>
+      </c>
+      <c r="H22">
+        <v>-0.1520374947958374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08072599798889755</v>
+        <v>0.07122260233857804</v>
       </c>
       <c r="C23">
-        <v>-0.05832162819076914</v>
+        <v>0.03351352538356708</v>
       </c>
       <c r="D23">
-        <v>-0.1335122909867192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.09239633648816564</v>
+      </c>
+      <c r="E23">
+        <v>0.6053703250877597</v>
+      </c>
+      <c r="F23">
+        <v>0.1155933107369325</v>
+      </c>
+      <c r="G23">
+        <v>-0.1018920039418371</v>
+      </c>
+      <c r="H23">
+        <v>-0.1485194079907625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07465718971774118</v>
+        <v>0.0805637950160962</v>
       </c>
       <c r="C24">
-        <v>-0.05009772624471316</v>
+        <v>0.03179193511178824</v>
       </c>
       <c r="D24">
-        <v>-0.0595024180050386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06090653040387577</v>
+      </c>
+      <c r="E24">
+        <v>0.01506834888390463</v>
+      </c>
+      <c r="F24">
+        <v>-0.03842732181193682</v>
+      </c>
+      <c r="G24">
+        <v>0.02501983656065965</v>
+      </c>
+      <c r="H24">
+        <v>0.03720800489636488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07482531602456761</v>
+        <v>0.0792491612260758</v>
       </c>
       <c r="C25">
-        <v>-0.05373065943201311</v>
+        <v>0.03547424391716725</v>
       </c>
       <c r="D25">
-        <v>-0.06620733913957791</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05096491834757563</v>
+      </c>
+      <c r="E25">
+        <v>0.01908276959667705</v>
+      </c>
+      <c r="F25">
+        <v>-0.03055294663824334</v>
+      </c>
+      <c r="G25">
+        <v>0.03386820091547942</v>
+      </c>
+      <c r="H25">
+        <v>0.04469204048165485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04500431184554021</v>
+        <v>0.04719158849180655</v>
       </c>
       <c r="C26">
-        <v>-0.008135613416961677</v>
+        <v>0.0005542006238235459</v>
       </c>
       <c r="D26">
-        <v>-0.01398202512769267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01779053769865503</v>
+      </c>
+      <c r="E26">
+        <v>0.04186633983126321</v>
+      </c>
+      <c r="F26">
+        <v>-0.03252247033075584</v>
+      </c>
+      <c r="G26">
+        <v>-0.000788624099359751</v>
+      </c>
+      <c r="H26">
+        <v>0.048652319828831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05368746185347788</v>
+        <v>0.06600672834369932</v>
       </c>
       <c r="C28">
-        <v>-0.06972702894045779</v>
+        <v>0.09964329672577653</v>
       </c>
       <c r="D28">
-        <v>0.3030427355616075</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3012485706493586</v>
+      </c>
+      <c r="E28">
+        <v>0.03377382914750011</v>
+      </c>
+      <c r="F28">
+        <v>-0.05641308786974899</v>
+      </c>
+      <c r="G28">
+        <v>0.03417882376450196</v>
+      </c>
+      <c r="H28">
+        <v>-0.03873936386887337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04249796713548185</v>
+        <v>0.04756696237393185</v>
       </c>
       <c r="C29">
-        <v>-0.02903064008148163</v>
+        <v>0.02456161392075795</v>
       </c>
       <c r="D29">
-        <v>-0.007858475748695769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01078998626886254</v>
+      </c>
+      <c r="E29">
+        <v>0.0622622542281158</v>
+      </c>
+      <c r="F29">
+        <v>-0.01464241898724798</v>
+      </c>
+      <c r="G29">
+        <v>0.004591656532472931</v>
+      </c>
+      <c r="H29">
+        <v>0.07718024457019712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1300366489860438</v>
+        <v>0.1301816617281778</v>
       </c>
       <c r="C30">
-        <v>-0.08672410476335034</v>
+        <v>0.05889611783495894</v>
       </c>
       <c r="D30">
-        <v>-0.1018554720097238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0711884484034023</v>
+      </c>
+      <c r="E30">
+        <v>0.08366782846673027</v>
+      </c>
+      <c r="F30">
+        <v>-0.004905851098765429</v>
+      </c>
+      <c r="G30">
+        <v>0.08400886851880289</v>
+      </c>
+      <c r="H30">
+        <v>-0.07545960423633309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04449274229614166</v>
+        <v>0.04825046914242855</v>
       </c>
       <c r="C31">
-        <v>-0.02172275838053323</v>
+        <v>0.01266784939468138</v>
       </c>
       <c r="D31">
-        <v>-0.02407576838335255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03068580238829897</v>
+      </c>
+      <c r="E31">
+        <v>0.02485490383112508</v>
+      </c>
+      <c r="F31">
+        <v>-0.01240010560239707</v>
+      </c>
+      <c r="G31">
+        <v>-0.01603607691764375</v>
+      </c>
+      <c r="H31">
+        <v>0.0699763391066384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03735079244449606</v>
+        <v>0.03756087564287575</v>
       </c>
       <c r="C32">
-        <v>-0.02430895378842854</v>
+        <v>0.02040246930531344</v>
       </c>
       <c r="D32">
-        <v>-0.02349051503789817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0107156270592492</v>
+      </c>
+      <c r="E32">
+        <v>0.05554757997358369</v>
+      </c>
+      <c r="F32">
+        <v>0.006959518149976143</v>
+      </c>
+      <c r="G32">
+        <v>0.04707259669121189</v>
+      </c>
+      <c r="H32">
+        <v>0.06059994706338089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08507292225013711</v>
+        <v>0.0953966970783833</v>
       </c>
       <c r="C33">
-        <v>-0.03897658332496293</v>
+        <v>0.02319942595667307</v>
       </c>
       <c r="D33">
-        <v>-0.05585040614652179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04625438263548876</v>
+      </c>
+      <c r="E33">
+        <v>0.016654312467406</v>
+      </c>
+      <c r="F33">
+        <v>-0.008009473277555296</v>
+      </c>
+      <c r="G33">
+        <v>0.006232267574708255</v>
+      </c>
+      <c r="H33">
+        <v>0.05663995269092933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05904253917478561</v>
+        <v>0.06387717093501848</v>
       </c>
       <c r="C34">
-        <v>-0.02498000676404095</v>
+        <v>0.0100020182682274</v>
       </c>
       <c r="D34">
-        <v>-0.05441551052781424</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04936850337763251</v>
+      </c>
+      <c r="E34">
+        <v>0.006882040026651508</v>
+      </c>
+      <c r="F34">
+        <v>-0.02067441619078951</v>
+      </c>
+      <c r="G34">
+        <v>0.01088216205951709</v>
+      </c>
+      <c r="H34">
+        <v>0.05490545286470615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03626560885871839</v>
+        <v>0.03843484817213594</v>
       </c>
       <c r="C35">
-        <v>-0.007620245680837356</v>
+        <v>0.002464974077788605</v>
       </c>
       <c r="D35">
-        <v>-0.01667856056157756</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01379021718512604</v>
+      </c>
+      <c r="E35">
+        <v>0.02200404979820023</v>
+      </c>
+      <c r="F35">
+        <v>0.01648187637618524</v>
+      </c>
+      <c r="G35">
+        <v>-0.007781903196855619</v>
+      </c>
+      <c r="H35">
+        <v>0.02053696385257131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02390550869322425</v>
+        <v>0.0286004976249322</v>
       </c>
       <c r="C36">
-        <v>-0.01799083243809568</v>
+        <v>0.01436142562333885</v>
       </c>
       <c r="D36">
-        <v>-0.02079484648386563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01509851690684494</v>
+      </c>
+      <c r="E36">
+        <v>0.03026455257106765</v>
+      </c>
+      <c r="F36">
+        <v>-0.02526376800979411</v>
+      </c>
+      <c r="G36">
+        <v>-0.002751038097549129</v>
+      </c>
+      <c r="H36">
+        <v>0.0405843769594722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04243404060371301</v>
+        <v>0.04377035092940684</v>
       </c>
       <c r="C38">
-        <v>-0.001564328776375387</v>
+        <v>-0.005276855666714613</v>
       </c>
       <c r="D38">
-        <v>-0.01797974134401473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02044245957958107</v>
+      </c>
+      <c r="E38">
+        <v>0.05070391042608298</v>
+      </c>
+      <c r="F38">
+        <v>0.004737815320271044</v>
+      </c>
+      <c r="G38">
+        <v>0.009497345439109149</v>
+      </c>
+      <c r="H38">
+        <v>0.03479544932745771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09217411763009067</v>
+        <v>0.1008213293791876</v>
       </c>
       <c r="C39">
-        <v>-0.06708300860510054</v>
+        <v>0.04741520894295606</v>
       </c>
       <c r="D39">
-        <v>-0.0554882094672816</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06415654241632199</v>
+      </c>
+      <c r="E39">
+        <v>0.008475717241344353</v>
+      </c>
+      <c r="F39">
+        <v>0.003388658501054037</v>
+      </c>
+      <c r="G39">
+        <v>0.04720146986566806</v>
+      </c>
+      <c r="H39">
+        <v>0.02964246410814204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08000024213257868</v>
+        <v>0.06350357024343774</v>
       </c>
       <c r="C40">
-        <v>-0.03348251862207893</v>
+        <v>0.005247697336203998</v>
       </c>
       <c r="D40">
-        <v>-0.004919766779924749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02805292517717336</v>
+      </c>
+      <c r="E40">
+        <v>0.03562705888387284</v>
+      </c>
+      <c r="F40">
+        <v>0.04891868582052761</v>
+      </c>
+      <c r="G40">
+        <v>0.03017027155413786</v>
+      </c>
+      <c r="H40">
+        <v>-0.09392936571753038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04290360953287588</v>
+        <v>0.04429914435717063</v>
       </c>
       <c r="C41">
-        <v>-0.004877026384914648</v>
+        <v>-0.005204541871228111</v>
       </c>
       <c r="D41">
-        <v>-0.0361096508968245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03182620075668563</v>
+      </c>
+      <c r="E41">
+        <v>0.001574798189611463</v>
+      </c>
+      <c r="F41">
+        <v>0.0151785673943118</v>
+      </c>
+      <c r="G41">
+        <v>0.01320417040296844</v>
+      </c>
+      <c r="H41">
+        <v>0.03624106325256815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05245607654118459</v>
+        <v>0.05947557061121113</v>
       </c>
       <c r="C43">
-        <v>-0.02578289734007789</v>
+        <v>0.01665370829512447</v>
       </c>
       <c r="D43">
-        <v>-0.01558438943851154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02706657210955859</v>
+      </c>
+      <c r="E43">
+        <v>0.02220075485970138</v>
+      </c>
+      <c r="F43">
+        <v>-0.01276402047576775</v>
+      </c>
+      <c r="G43">
+        <v>-0.01454138584909714</v>
+      </c>
+      <c r="H43">
+        <v>0.06714256084203929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09770416813470192</v>
+        <v>0.09581835844402592</v>
       </c>
       <c r="C44">
-        <v>-0.08517070889241013</v>
+        <v>0.05850164612400439</v>
       </c>
       <c r="D44">
-        <v>-0.07776197653601219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06615290950615155</v>
+      </c>
+      <c r="E44">
+        <v>0.08030501170106419</v>
+      </c>
+      <c r="F44">
+        <v>-0.07244245562489272</v>
+      </c>
+      <c r="G44">
+        <v>0.03287681759516326</v>
+      </c>
+      <c r="H44">
+        <v>0.01558972540183429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02581732517919788</v>
+        <v>0.03432987219993504</v>
       </c>
       <c r="C46">
-        <v>-0.01510166431454842</v>
+        <v>0.0110552459523007</v>
       </c>
       <c r="D46">
-        <v>-0.02794991069205485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03601209161410666</v>
+      </c>
+      <c r="E46">
+        <v>0.03479222989814444</v>
+      </c>
+      <c r="F46">
+        <v>-0.01289952589683854</v>
+      </c>
+      <c r="G46">
+        <v>-0.002354395547726156</v>
+      </c>
+      <c r="H46">
+        <v>0.03498704498740363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03129211047607165</v>
+        <v>0.03863215608862395</v>
       </c>
       <c r="C47">
-        <v>-0.02363048097335507</v>
+        <v>0.01955862683011792</v>
       </c>
       <c r="D47">
-        <v>-0.004863694234631723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008011299857134136</v>
+      </c>
+      <c r="E47">
+        <v>0.04482177464393931</v>
+      </c>
+      <c r="F47">
+        <v>-0.01327040841318447</v>
+      </c>
+      <c r="G47">
+        <v>-0.03941186526761789</v>
+      </c>
+      <c r="H47">
+        <v>0.04182902064343146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03438572923400943</v>
+        <v>0.03871608636772544</v>
       </c>
       <c r="C48">
-        <v>-0.01751464067975764</v>
+        <v>0.01043188560882291</v>
       </c>
       <c r="D48">
-        <v>-0.0318922248977192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01901493282033569</v>
+      </c>
+      <c r="E48">
+        <v>0.03850191926290179</v>
+      </c>
+      <c r="F48">
+        <v>-0.01051627157070475</v>
+      </c>
+      <c r="G48">
+        <v>0.01834111171193033</v>
+      </c>
+      <c r="H48">
+        <v>0.03367092071689406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.161768699467713</v>
+        <v>0.1916036426357113</v>
       </c>
       <c r="C49">
-        <v>-0.04833452046219974</v>
+        <v>0.02996345522242167</v>
       </c>
       <c r="D49">
-        <v>0.0003312596244375908</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.031138195808033</v>
+      </c>
+      <c r="E49">
+        <v>-0.1662298618278457</v>
+      </c>
+      <c r="F49">
+        <v>-0.05743661326637187</v>
+      </c>
+      <c r="G49">
+        <v>-0.09910664459200892</v>
+      </c>
+      <c r="H49">
+        <v>-0.2196540475872525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03976800596274464</v>
+        <v>0.04511177368981785</v>
       </c>
       <c r="C50">
-        <v>-0.01931838012406353</v>
+        <v>0.01201798371770097</v>
       </c>
       <c r="D50">
-        <v>-0.0442628111814933</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0365232068041105</v>
+      </c>
+      <c r="E50">
+        <v>0.04223651047412566</v>
+      </c>
+      <c r="F50">
+        <v>-0.01375742141629085</v>
+      </c>
+      <c r="G50">
+        <v>-0.01522896291330964</v>
+      </c>
+      <c r="H50">
+        <v>0.0749571164751605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02868785145704075</v>
+        <v>0.03135090724647741</v>
       </c>
       <c r="C51">
-        <v>-0.01000718375762114</v>
+        <v>0.004473096502991602</v>
       </c>
       <c r="D51">
-        <v>-0.005476308817805325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.007728206589548674</v>
+      </c>
+      <c r="E51">
+        <v>0.009044174918765266</v>
+      </c>
+      <c r="F51">
+        <v>-0.01523689372768004</v>
+      </c>
+      <c r="G51">
+        <v>-0.0002455725335845268</v>
+      </c>
+      <c r="H51">
+        <v>-0.002683937923867081</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1567332740457538</v>
+        <v>0.1630479071234333</v>
       </c>
       <c r="C53">
-        <v>-0.07227631812865168</v>
+        <v>0.04875490680112782</v>
       </c>
       <c r="D53">
-        <v>-0.001250320471893528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02353863730782776</v>
+      </c>
+      <c r="E53">
+        <v>-0.02827865104997938</v>
+      </c>
+      <c r="F53">
+        <v>-0.00971486467358546</v>
+      </c>
+      <c r="G53">
+        <v>-0.009694353319245595</v>
+      </c>
+      <c r="H53">
+        <v>0.1885938517263555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05735374795708102</v>
+        <v>0.05779247802021495</v>
       </c>
       <c r="C54">
-        <v>-0.02206207155583614</v>
+        <v>0.01183560082166856</v>
       </c>
       <c r="D54">
-        <v>-0.01861214971802409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01409559232751486</v>
+      </c>
+      <c r="E54">
+        <v>0.04669545692870841</v>
+      </c>
+      <c r="F54">
+        <v>-0.005704909002489679</v>
+      </c>
+      <c r="G54">
+        <v>0.03491726276081809</v>
+      </c>
+      <c r="H54">
+        <v>0.04135347279597178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1003097249508131</v>
+        <v>0.1041663309240307</v>
       </c>
       <c r="C55">
-        <v>-0.04842450608135353</v>
+        <v>0.03178467856498376</v>
       </c>
       <c r="D55">
-        <v>-0.02088587422866055</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02604874698381705</v>
+      </c>
+      <c r="E55">
+        <v>0.006826484165222996</v>
+      </c>
+      <c r="F55">
+        <v>-0.01237685930651296</v>
+      </c>
+      <c r="G55">
+        <v>-0.002859555567962515</v>
+      </c>
+      <c r="H55">
+        <v>0.1529488721298416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1525078696004854</v>
+        <v>0.1606122465934576</v>
       </c>
       <c r="C56">
-        <v>-0.08298840621470535</v>
+        <v>0.05716462537622909</v>
       </c>
       <c r="D56">
-        <v>-0.01241690166175924</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03135570989539072</v>
+      </c>
+      <c r="E56">
+        <v>-0.01918977181744386</v>
+      </c>
+      <c r="F56">
+        <v>-0.02815630224631411</v>
+      </c>
+      <c r="G56">
+        <v>-0.01788629646774223</v>
+      </c>
+      <c r="H56">
+        <v>0.1957294715930696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1311951608807172</v>
+        <v>0.09994565329006237</v>
       </c>
       <c r="C58">
-        <v>0.004743916490901626</v>
+        <v>-0.0460753156941047</v>
       </c>
       <c r="D58">
-        <v>-0.02383272926335667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03260087540485727</v>
+      </c>
+      <c r="E58">
+        <v>0.1410927545234444</v>
+      </c>
+      <c r="F58">
+        <v>-0.01150465588241124</v>
+      </c>
+      <c r="G58">
+        <v>-0.04771279713317233</v>
+      </c>
+      <c r="H58">
+        <v>-0.2210616686232214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.124995162244778</v>
+        <v>0.1420702636850851</v>
       </c>
       <c r="C59">
-        <v>-0.07651889231390384</v>
+        <v>0.1058902052874321</v>
       </c>
       <c r="D59">
-        <v>0.3764091793935531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3569649318871662</v>
+      </c>
+      <c r="E59">
+        <v>0.02718912115967192</v>
+      </c>
+      <c r="F59">
+        <v>-0.01300550692203756</v>
+      </c>
+      <c r="G59">
+        <v>-0.01426732765976954</v>
+      </c>
+      <c r="H59">
+        <v>-0.003757277263694549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2090257178276343</v>
+        <v>0.2381160688629848</v>
       </c>
       <c r="C60">
-        <v>-0.09001779752827889</v>
+        <v>0.06171717046294388</v>
       </c>
       <c r="D60">
-        <v>-0.02584485250179699</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04522319734132568</v>
+      </c>
+      <c r="E60">
+        <v>-0.10914733949866</v>
+      </c>
+      <c r="F60">
+        <v>-0.05323720968734164</v>
+      </c>
+      <c r="G60">
+        <v>0.000544043432777213</v>
+      </c>
+      <c r="H60">
+        <v>-0.1452797460202914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08247597481978045</v>
+        <v>0.08941060380597422</v>
       </c>
       <c r="C61">
-        <v>-0.04789762399573845</v>
+        <v>0.0335721657702857</v>
       </c>
       <c r="D61">
-        <v>-0.03869084800769571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04157589963008127</v>
+      </c>
+      <c r="E61">
+        <v>0.002887737589987133</v>
+      </c>
+      <c r="F61">
+        <v>-0.00271110568682564</v>
+      </c>
+      <c r="G61">
+        <v>0.01366673221951783</v>
+      </c>
+      <c r="H61">
+        <v>0.0562234693037755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1306411317979295</v>
+        <v>0.1371871983985548</v>
       </c>
       <c r="C62">
-        <v>-0.05789480649992065</v>
+        <v>0.03392309665557318</v>
       </c>
       <c r="D62">
-        <v>-0.0188387886362132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04029029601612062</v>
+      </c>
+      <c r="E62">
+        <v>-0.05334307273683171</v>
+      </c>
+      <c r="F62">
+        <v>-0.002282051766928933</v>
+      </c>
+      <c r="G62">
+        <v>0.02334472237243032</v>
+      </c>
+      <c r="H62">
+        <v>0.1864095379929832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05208394101751328</v>
+        <v>0.05255657950618369</v>
       </c>
       <c r="C63">
-        <v>-0.02263667987283247</v>
+        <v>0.01401688171905933</v>
       </c>
       <c r="D63">
-        <v>-0.02345186989662568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0184540528071009</v>
+      </c>
+      <c r="E63">
+        <v>0.04841605761104292</v>
+      </c>
+      <c r="F63">
+        <v>0.003225339253161488</v>
+      </c>
+      <c r="G63">
+        <v>0.02152263071878329</v>
+      </c>
+      <c r="H63">
+        <v>0.04317557582217163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1040771099591112</v>
+        <v>0.1082994400511564</v>
       </c>
       <c r="C64">
-        <v>-0.02994867776159681</v>
+        <v>0.01501328475680957</v>
       </c>
       <c r="D64">
-        <v>-0.03447974561181683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02846023753846965</v>
+      </c>
+      <c r="E64">
+        <v>0.03087945192748862</v>
+      </c>
+      <c r="F64">
+        <v>-0.04326933295686285</v>
+      </c>
+      <c r="G64">
+        <v>0.05684080882620157</v>
+      </c>
+      <c r="H64">
+        <v>0.03456340622114121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1276516100203267</v>
+        <v>0.1287302142468337</v>
       </c>
       <c r="C65">
-        <v>-0.05756648848822689</v>
+        <v>0.04006156861843128</v>
       </c>
       <c r="D65">
-        <v>-0.001265114830143501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.008872174358714228</v>
+      </c>
+      <c r="E65">
+        <v>-0.002665506328271246</v>
+      </c>
+      <c r="F65">
+        <v>-0.05261128044857423</v>
+      </c>
+      <c r="G65">
+        <v>0.0583504183446461</v>
+      </c>
+      <c r="H65">
+        <v>-0.144392692102712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1488975130011214</v>
+        <v>0.1528585076410513</v>
       </c>
       <c r="C66">
-        <v>-0.06595601043142642</v>
+        <v>0.03557983137350901</v>
       </c>
       <c r="D66">
-        <v>-0.1009136641719443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09827887746176625</v>
+      </c>
+      <c r="E66">
+        <v>-0.02001873923097513</v>
+      </c>
+      <c r="F66">
+        <v>-0.004567618941325337</v>
+      </c>
+      <c r="G66">
+        <v>0.05846958200334749</v>
+      </c>
+      <c r="H66">
+        <v>0.09158314367052799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07492139228880094</v>
+        <v>0.08410452999312942</v>
       </c>
       <c r="C67">
-        <v>-0.008600991791013245</v>
+        <v>-0.0008996027840100786</v>
       </c>
       <c r="D67">
-        <v>-0.02323971653814853</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03220096698685782</v>
+      </c>
+      <c r="E67">
+        <v>0.01646707769824596</v>
+      </c>
+      <c r="F67">
+        <v>-0.01905477164884023</v>
+      </c>
+      <c r="G67">
+        <v>-0.006949654258640359</v>
+      </c>
+      <c r="H67">
+        <v>0.04249192701933273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0597026859834202</v>
+        <v>0.06136587850671359</v>
       </c>
       <c r="C68">
-        <v>-0.04955343005808376</v>
+        <v>0.0749355472714124</v>
       </c>
       <c r="D68">
-        <v>0.2556133931725993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2660049829501978</v>
+      </c>
+      <c r="E68">
+        <v>0.04011435984887812</v>
+      </c>
+      <c r="F68">
+        <v>-0.01628359270644994</v>
+      </c>
+      <c r="G68">
+        <v>-0.006817432697113467</v>
+      </c>
+      <c r="H68">
+        <v>0.007747857020836156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05136599830918556</v>
+        <v>0.05278204080003582</v>
       </c>
       <c r="C69">
-        <v>-0.01442518434828289</v>
+        <v>0.004372490137641334</v>
       </c>
       <c r="D69">
-        <v>-0.02137004522228067</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01646652041300574</v>
+      </c>
+      <c r="E69">
+        <v>0.02664931856659338</v>
+      </c>
+      <c r="F69">
+        <v>0.01110510885778458</v>
+      </c>
+      <c r="G69">
+        <v>-0.01757225919564733</v>
+      </c>
+      <c r="H69">
+        <v>0.05865426739103324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003776111937100426</v>
+        <v>0.02868420241554174</v>
       </c>
       <c r="C70">
-        <v>0.00870438434841737</v>
+        <v>-0.002601047322541298</v>
       </c>
       <c r="D70">
-        <v>0.006017058420125084</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005301123455091944</v>
+      </c>
+      <c r="E70">
+        <v>-0.02597641480423641</v>
+      </c>
+      <c r="F70">
+        <v>-0.01063862962026706</v>
+      </c>
+      <c r="G70">
+        <v>-0.01675364445094605</v>
+      </c>
+      <c r="H70">
+        <v>-0.01638239874228591</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05899694108474155</v>
+        <v>0.06480460989987219</v>
       </c>
       <c r="C71">
-        <v>-0.05003567671930791</v>
+        <v>0.08166951277887491</v>
       </c>
       <c r="D71">
-        <v>0.2887125579454676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2922225394628666</v>
+      </c>
+      <c r="E71">
+        <v>0.03363214736240289</v>
+      </c>
+      <c r="F71">
+        <v>-0.04521673786864651</v>
+      </c>
+      <c r="G71">
+        <v>0.003193868136389245</v>
+      </c>
+      <c r="H71">
+        <v>0.006286450353642704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1436233808819515</v>
+        <v>0.1459819751427578</v>
       </c>
       <c r="C72">
-        <v>-0.05793127237962503</v>
+        <v>0.03260559862052335</v>
       </c>
       <c r="D72">
-        <v>-0.001904181159151539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001487643832094632</v>
+      </c>
+      <c r="E72">
+        <v>-0.07483309664970839</v>
+      </c>
+      <c r="F72">
+        <v>0.1716311034395264</v>
+      </c>
+      <c r="G72">
+        <v>0.1129724194656323</v>
+      </c>
+      <c r="H72">
+        <v>-0.02048666016710755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.286383589900214</v>
+        <v>0.2878497974455902</v>
       </c>
       <c r="C73">
-        <v>-0.09310617032522982</v>
+        <v>0.03089338455939491</v>
       </c>
       <c r="D73">
-        <v>-0.04774030797065032</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1013850884283786</v>
+      </c>
+      <c r="E73">
+        <v>-0.2289113478472193</v>
+      </c>
+      <c r="F73">
+        <v>-0.09271103873530823</v>
+      </c>
+      <c r="G73">
+        <v>-0.2025295240375697</v>
+      </c>
+      <c r="H73">
+        <v>-0.4838151329383757</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08346610846993494</v>
+        <v>0.09140537240032638</v>
       </c>
       <c r="C74">
-        <v>-0.07505086532018841</v>
+        <v>0.05759061888047858</v>
       </c>
       <c r="D74">
-        <v>-0.007037599786209066</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03373514567799823</v>
+      </c>
+      <c r="E74">
+        <v>-0.001544584815829298</v>
+      </c>
+      <c r="F74">
+        <v>0.0007208053340131493</v>
+      </c>
+      <c r="G74">
+        <v>-0.04300749321062017</v>
+      </c>
+      <c r="H74">
+        <v>0.1258282840755379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09652683577231806</v>
+        <v>0.1014774705572293</v>
       </c>
       <c r="C75">
-        <v>-0.04657301888765796</v>
+        <v>0.02518684971058897</v>
       </c>
       <c r="D75">
-        <v>-0.007665533829477093</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0192933678229913</v>
+      </c>
+      <c r="E75">
+        <v>0.002625386178182466</v>
+      </c>
+      <c r="F75">
+        <v>-0.0189336519576482</v>
+      </c>
+      <c r="G75">
+        <v>-0.02138328236388383</v>
+      </c>
+      <c r="H75">
+        <v>0.1226999732520784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1334804275306993</v>
+        <v>0.1424185145182522</v>
       </c>
       <c r="C76">
-        <v>-0.0780151832971355</v>
+        <v>0.05468771036803655</v>
       </c>
       <c r="D76">
-        <v>-0.03848405778837845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05219076592206743</v>
+      </c>
+      <c r="E76">
+        <v>0.01580291210771586</v>
+      </c>
+      <c r="F76">
+        <v>-0.04635410495919212</v>
+      </c>
+      <c r="G76">
+        <v>-0.00487300835349073</v>
+      </c>
+      <c r="H76">
+        <v>0.2190855617340716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1163571596319558</v>
+        <v>0.1047645435377657</v>
       </c>
       <c r="C77">
-        <v>-0.008550954117167</v>
+        <v>-0.02026323620880965</v>
       </c>
       <c r="D77">
-        <v>-0.09373147729749845</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04068570613779054</v>
+      </c>
+      <c r="E77">
+        <v>0.01792385813093627</v>
+      </c>
+      <c r="F77">
+        <v>-0.07806288867127957</v>
+      </c>
+      <c r="G77">
+        <v>0.8708070411992324</v>
+      </c>
+      <c r="H77">
+        <v>-0.1703888099833875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1073627830087015</v>
+        <v>0.1472549200954101</v>
       </c>
       <c r="C78">
-        <v>-0.03492183400664257</v>
+        <v>0.0301935284416854</v>
       </c>
       <c r="D78">
-        <v>-0.08409237290458048</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07805929364992771</v>
+      </c>
+      <c r="E78">
+        <v>0.05050892645570629</v>
+      </c>
+      <c r="F78">
+        <v>-0.05886061436625444</v>
+      </c>
+      <c r="G78">
+        <v>0.08183718546048384</v>
+      </c>
+      <c r="H78">
+        <v>-0.04695188359039007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1490774137364392</v>
+        <v>0.1496145997412074</v>
       </c>
       <c r="C79">
-        <v>-0.06580638920028525</v>
+        <v>0.03548138189176768</v>
       </c>
       <c r="D79">
-        <v>-0.02093984195533465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03358231700035309</v>
+      </c>
+      <c r="E79">
+        <v>-0.01453183172814965</v>
+      </c>
+      <c r="F79">
+        <v>-0.01583451196758864</v>
+      </c>
+      <c r="G79">
+        <v>-0.02224678163023904</v>
+      </c>
+      <c r="H79">
+        <v>0.1694850245112903</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04081053343633124</v>
+        <v>0.04241244995384275</v>
       </c>
       <c r="C80">
-        <v>-0.01829225603846599</v>
+        <v>0.0128018665750242</v>
       </c>
       <c r="D80">
-        <v>-0.02856859531341265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.014327092556661</v>
+      </c>
+      <c r="E80">
+        <v>-0.03061061673297334</v>
+      </c>
+      <c r="F80">
+        <v>-0.004846857298400729</v>
+      </c>
+      <c r="G80">
+        <v>-0.02161260512060744</v>
+      </c>
+      <c r="H80">
+        <v>0.03523678985768709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.119153725639149</v>
+        <v>0.1203790931812835</v>
       </c>
       <c r="C81">
-        <v>-0.0586794441595813</v>
+        <v>0.03470676269647921</v>
       </c>
       <c r="D81">
-        <v>-0.03081171495863572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02878086347028775</v>
+      </c>
+      <c r="E81">
+        <v>0.009304033529691478</v>
+      </c>
+      <c r="F81">
+        <v>-0.01919571764011417</v>
+      </c>
+      <c r="G81">
+        <v>-0.05012715779466039</v>
+      </c>
+      <c r="H81">
+        <v>0.1666091134555862</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1320863813560255</v>
+        <v>0.1311811001001598</v>
       </c>
       <c r="C82">
-        <v>-0.07133330436072614</v>
+        <v>0.04741549626382691</v>
       </c>
       <c r="D82">
-        <v>-0.01280574147587943</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03298092762511037</v>
+      </c>
+      <c r="E82">
+        <v>-0.02075080059765433</v>
+      </c>
+      <c r="F82">
+        <v>-0.04756066319519698</v>
+      </c>
+      <c r="G82">
+        <v>-0.03348296981190494</v>
+      </c>
+      <c r="H82">
+        <v>0.2206141102969211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07038303423366725</v>
+        <v>0.08458265040022983</v>
       </c>
       <c r="C83">
-        <v>0.02235678990994418</v>
+        <v>-0.03280945867049094</v>
       </c>
       <c r="D83">
-        <v>-0.02462207845435343</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02675471890801284</v>
+      </c>
+      <c r="E83">
+        <v>0.01965363861848099</v>
+      </c>
+      <c r="F83">
+        <v>-0.05689662625233996</v>
+      </c>
+      <c r="G83">
+        <v>-0.05782913553790398</v>
+      </c>
+      <c r="H83">
+        <v>-0.04331409725422876</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0299345594413952</v>
+        <v>0.03685767251318712</v>
       </c>
       <c r="C84">
-        <v>-0.02711580704388047</v>
+        <v>0.02091997533872453</v>
       </c>
       <c r="D84">
-        <v>-0.02785661932007674</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03183805764786962</v>
+      </c>
+      <c r="E84">
+        <v>0.03194515717554367</v>
+      </c>
+      <c r="F84">
+        <v>0.051439411279935</v>
+      </c>
+      <c r="G84">
+        <v>-0.05697615607922074</v>
+      </c>
+      <c r="H84">
+        <v>0.008422947244629057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1150817374466119</v>
+        <v>0.11907488459317</v>
       </c>
       <c r="C85">
-        <v>-0.0413402180748141</v>
+        <v>0.0194171276782862</v>
       </c>
       <c r="D85">
-        <v>-0.04531004973747785</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03776842098762243</v>
+      </c>
+      <c r="E85">
+        <v>0.01831428064714234</v>
+      </c>
+      <c r="F85">
+        <v>-0.0418726377983167</v>
+      </c>
+      <c r="G85">
+        <v>-0.02340307396237607</v>
+      </c>
+      <c r="H85">
+        <v>0.1586395228939815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05346334076920459</v>
+        <v>0.05968228610781394</v>
       </c>
       <c r="C86">
-        <v>-0.01961865343699161</v>
+        <v>0.01016783700439805</v>
       </c>
       <c r="D86">
-        <v>-0.05676203204907805</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03132321959857922</v>
+      </c>
+      <c r="E86">
+        <v>0.05091835866744894</v>
+      </c>
+      <c r="F86">
+        <v>-0.02764952725007105</v>
+      </c>
+      <c r="G86">
+        <v>-0.02706319293377594</v>
+      </c>
+      <c r="H86">
+        <v>-0.01882379058121745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1221787377361973</v>
+        <v>0.1252959183544302</v>
       </c>
       <c r="C87">
-        <v>-0.06464109570965386</v>
+        <v>0.03261260316053695</v>
       </c>
       <c r="D87">
-        <v>-0.07495898305807527</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06751825865392175</v>
+      </c>
+      <c r="E87">
+        <v>0.01047389808919469</v>
+      </c>
+      <c r="F87">
+        <v>-0.01062129060185804</v>
+      </c>
+      <c r="G87">
+        <v>0.1221842931281441</v>
+      </c>
+      <c r="H87">
+        <v>-0.05435591894862123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05319089771447774</v>
+        <v>0.06157742871814009</v>
       </c>
       <c r="C88">
-        <v>-0.02804253731019561</v>
+        <v>0.01895243950602202</v>
       </c>
       <c r="D88">
-        <v>-0.02279910591808043</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03369700842879258</v>
+      </c>
+      <c r="E88">
+        <v>0.01502122759901509</v>
+      </c>
+      <c r="F88">
+        <v>-0.01159553903282635</v>
+      </c>
+      <c r="G88">
+        <v>0.009702899022453172</v>
+      </c>
+      <c r="H88">
+        <v>0.04636610571231847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08913851336424083</v>
+        <v>0.1004671806596155</v>
       </c>
       <c r="C89">
-        <v>-0.07206281941134927</v>
+        <v>0.1058405848592552</v>
       </c>
       <c r="D89">
-        <v>0.3318830147507765</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3430625109956741</v>
+      </c>
+      <c r="E89">
+        <v>0.06714187780632934</v>
+      </c>
+      <c r="F89">
+        <v>-0.08524964030824835</v>
+      </c>
+      <c r="G89">
+        <v>-0.0251840453695866</v>
+      </c>
+      <c r="H89">
+        <v>0.005233912241402998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07592811509524945</v>
+        <v>0.08270826745927176</v>
       </c>
       <c r="C90">
-        <v>-0.05922669976732502</v>
+        <v>0.0871837229636503</v>
       </c>
       <c r="D90">
-        <v>0.3115648607168441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3012405495528598</v>
+      </c>
+      <c r="E90">
+        <v>0.0697720565648316</v>
+      </c>
+      <c r="F90">
+        <v>-0.009317399597852992</v>
+      </c>
+      <c r="G90">
+        <v>0.01371504210881054</v>
+      </c>
+      <c r="H90">
+        <v>-0.01088805454520662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08903520215357076</v>
+        <v>0.09159635761043176</v>
       </c>
       <c r="C91">
-        <v>-0.04957865222731058</v>
+        <v>0.02957434467185654</v>
       </c>
       <c r="D91">
-        <v>-0.02199087129402416</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0300364559139739</v>
+      </c>
+      <c r="E91">
+        <v>0.008594791722479978</v>
+      </c>
+      <c r="F91">
+        <v>-0.003459900666146437</v>
+      </c>
+      <c r="G91">
+        <v>-0.03418426728760297</v>
+      </c>
+      <c r="H91">
+        <v>0.09639842574559952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07570572782846598</v>
+        <v>0.08336574842203819</v>
       </c>
       <c r="C92">
-        <v>-0.07432483683266772</v>
+        <v>0.1074763765653592</v>
       </c>
       <c r="D92">
-        <v>0.3348191317229917</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3368232088338309</v>
+      </c>
+      <c r="E92">
+        <v>0.0391455540830953</v>
+      </c>
+      <c r="F92">
+        <v>-0.04540384174081975</v>
+      </c>
+      <c r="G92">
+        <v>0.01365520546679793</v>
+      </c>
+      <c r="H92">
+        <v>0.01652133961006764</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06620478234021489</v>
+        <v>0.07856344791812001</v>
       </c>
       <c r="C93">
-        <v>-0.06540008979137429</v>
+        <v>0.09973531219048069</v>
       </c>
       <c r="D93">
-        <v>0.2970843815176711</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2982090676335586</v>
+      </c>
+      <c r="E93">
+        <v>0.02341714925343218</v>
+      </c>
+      <c r="F93">
+        <v>-0.03382703256061405</v>
+      </c>
+      <c r="G93">
+        <v>0.02131575044461738</v>
+      </c>
+      <c r="H93">
+        <v>-0.01443099714034845</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1352028553683876</v>
+        <v>0.1285003036859342</v>
       </c>
       <c r="C94">
-        <v>-0.04303446576621377</v>
+        <v>0.01153970612493631</v>
       </c>
       <c r="D94">
-        <v>-0.0398446986570235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04818786304317727</v>
+      </c>
+      <c r="E94">
+        <v>-0.0158862021695799</v>
+      </c>
+      <c r="F94">
+        <v>-0.01259289437145651</v>
+      </c>
+      <c r="G94">
+        <v>-0.05539367841893737</v>
+      </c>
+      <c r="H94">
+        <v>0.1159976907881575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1236377038476702</v>
+        <v>0.1289286177078823</v>
       </c>
       <c r="C95">
-        <v>-0.02426510587557407</v>
+        <v>-0.002226456765518144</v>
       </c>
       <c r="D95">
-        <v>-0.05073571750802031</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05789158124090581</v>
+      </c>
+      <c r="E95">
+        <v>0.007504531719202568</v>
+      </c>
+      <c r="F95">
+        <v>-0.03697604955245811</v>
+      </c>
+      <c r="G95">
+        <v>0.03945637790294849</v>
+      </c>
+      <c r="H95">
+        <v>-0.06258512238234305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2221922196992984</v>
+        <v>0.2041808511532269</v>
       </c>
       <c r="C97">
-        <v>-0.03976439157238552</v>
+        <v>-0.002638929615048346</v>
       </c>
       <c r="D97">
-        <v>0.1090775460298657</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.07881403516115065</v>
+      </c>
+      <c r="E97">
+        <v>-0.143461526502442</v>
+      </c>
+      <c r="F97">
+        <v>0.9184420747824309</v>
+      </c>
+      <c r="G97">
+        <v>0.05354687096577391</v>
+      </c>
+      <c r="H97">
+        <v>0.00310899291310354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2464306527240532</v>
+        <v>0.2752816653257703</v>
       </c>
       <c r="C98">
-        <v>-0.05578837049275598</v>
+        <v>0.02016235485823148</v>
       </c>
       <c r="D98">
-        <v>-0.03800045186051496</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05607465455341244</v>
+      </c>
+      <c r="E98">
+        <v>-0.1911938758717683</v>
+      </c>
+      <c r="F98">
+        <v>-0.04889794386028077</v>
+      </c>
+      <c r="G98">
+        <v>-0.2576291979865629</v>
+      </c>
+      <c r="H98">
+        <v>-0.1912770939030055</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3981189551593601</v>
+        <v>0.2669976385898992</v>
       </c>
       <c r="C99">
-        <v>0.8992524133199959</v>
+        <v>-0.9268467021235244</v>
       </c>
       <c r="D99">
-        <v>0.06038791646869001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1906719540679886</v>
+      </c>
+      <c r="E99">
+        <v>0.06930849356055002</v>
+      </c>
+      <c r="F99">
+        <v>-0.06323088065122311</v>
+      </c>
+      <c r="G99">
+        <v>-0.01358026829550123</v>
+      </c>
+      <c r="H99">
+        <v>0.06962689118356037</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04228598068944349</v>
+        <v>0.04747152908005262</v>
       </c>
       <c r="C101">
-        <v>-0.02914045603833956</v>
+        <v>0.02479146861125813</v>
       </c>
       <c r="D101">
-        <v>-0.008644073491026916</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01106643766764425</v>
+      </c>
+      <c r="E101">
+        <v>0.06220877153785957</v>
+      </c>
+      <c r="F101">
+        <v>-0.01425784718246875</v>
+      </c>
+      <c r="G101">
+        <v>0.003850293843810269</v>
+      </c>
+      <c r="H101">
+        <v>0.07618123939741984</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
